--- a/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_1814101678387569.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_1814101678387569.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Construccion_Navegacion" sheetId="1" r:id="rId1"/>
@@ -9283,11 +9283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="415327344"/>
-        <c:axId val="415326560"/>
+        <c:axId val="416555312"/>
+        <c:axId val="416558056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415327344"/>
+        <c:axId val="416555312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9329,7 +9329,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415326560"/>
+        <c:crossAx val="416558056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9337,7 +9337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415326560"/>
+        <c:axId val="416558056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9388,7 +9388,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415327344"/>
+        <c:crossAx val="416555312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10314,11 +10314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="415328128"/>
-        <c:axId val="415328520"/>
+        <c:axId val="416472528"/>
+        <c:axId val="416473312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415328128"/>
+        <c:axId val="416472528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10361,7 +10361,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415328520"/>
+        <c:crossAx val="416473312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10369,7 +10369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415328520"/>
+        <c:axId val="416473312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10420,7 +10420,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415328128"/>
+        <c:crossAx val="416472528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11318,8 +11318,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="415325776"/>
-        <c:axId val="415328912"/>
+        <c:axId val="416474880"/>
+        <c:axId val="416475272"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11740,7 +11740,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415325776"/>
+        <c:axId val="416474880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11783,7 +11783,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415328912"/>
+        <c:crossAx val="416475272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11791,7 +11791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415328912"/>
+        <c:axId val="416475272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11842,7 +11842,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415325776"/>
+        <c:crossAx val="416474880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13958,7 +13958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -49044,7 +49044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
